--- a/MyProject/Video Schedule.xlsx
+++ b/MyProject/Video Schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Benjamin\Documents\GATECH\CS6460_EDUCATION_TECHNOLOGY\MyProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E104E17-F1A6-42E3-A548-ADDF4CABAD95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82B921E-E029-4948-A61D-23607C29FEF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="1980" windowWidth="21600" windowHeight="10920" xr2:uid="{FECEB85B-96B4-4D12-8E06-9F017975E977}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15225" xr2:uid="{FECEB85B-96B4-4D12-8E06-9F017975E977}"/>
   </bookViews>
   <sheets>
     <sheet name="Topics" sheetId="1" r:id="rId1"/>
@@ -34,20 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>How to install Anaconda for Python Programming</t>
   </si>
   <si>
-    <t>How to use Jupyter notebook</t>
-  </si>
-  <si>
-    <t>How to install libraries in Anaconda</t>
-  </si>
-  <si>
-    <t>How to install Anaconda and run your first python program!</t>
-  </si>
-  <si>
     <t>Video Intro 30 seconds</t>
   </si>
   <si>
@@ -60,13 +51,58 @@
     <t>Include links in description</t>
   </si>
   <si>
-    <t>Where to find data for data science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How to use pandas with CSV </t>
-  </si>
-  <si>
-    <t>Regular expressions with pandas</t>
+    <t>Regex with Excel</t>
+  </si>
+  <si>
+    <t>Eigen Vectors and Basis Sets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What are type 1 and type 2 errors? </t>
+  </si>
+  <si>
+    <t>What is monte carlo estimation?</t>
+  </si>
+  <si>
+    <t>What is liklihood estimation?</t>
+  </si>
+  <si>
+    <t>Quick Understanding of Neural Networks</t>
+  </si>
+  <si>
+    <t>Activation Functions?</t>
+  </si>
+  <si>
+    <t>How do I open a CSV in python?</t>
+  </si>
+  <si>
+    <t>How to aggregate data in excel VBA?</t>
+  </si>
+  <si>
+    <t>How do I open a CSV in excel VBA?</t>
+  </si>
+  <si>
+    <t>How to aggregate data in python with pandas?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL Basic: Query explained </t>
+  </si>
+  <si>
+    <t>SQL Basic: Group By and Having Statement</t>
+  </si>
+  <si>
+    <t>SQL Basic: Join and Union Statement</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Excel vs Python</t>
   </si>
 </sst>
 </file>
@@ -82,12 +118,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -102,8 +144,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,50 +461,117 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BACD717D-04D2-4BB6-A5C0-9700359F8713}">
-  <dimension ref="A1:A12"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -471,6 +581,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{277C4AF0-29D1-4BF6-B91C-F019948BA9BD}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A3:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -481,22 +592,22 @@
   <sheetData>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
